--- a/Ultra Interior Ltd/38390/hobsonvillepoint/struct.xlsx
+++ b/Ultra Interior Ltd/38390/hobsonvillepoint/struct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\38390\24caitcheon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\38390\hobsonvillepoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16166689-0F0D-42BF-BC82-2D9E54F36CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F84606-517A-4997-9459-62EFB62FFC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1950" windowWidth="26730" windowHeight="17955" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="8730" yWindow="1995" windowWidth="26730" windowHeight="17955" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>resource</t>
   </si>
@@ -88,15 +88,6 @@
     <t>Site QA</t>
   </si>
   <si>
-    <t>QA - Metal Ceiling Grid Checklist</t>
-  </si>
-  <si>
-    <t>Metal Grid Ceilings/Suspended Ceilings</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
@@ -128,6 +119,9 @@
   </si>
   <si>
     <t>Nov 25</t>
+  </si>
+  <si>
+    <t>Area 1</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,67 +1082,64 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1156,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1164,7 +1155,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1172,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1180,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1188,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1196,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1212,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1220,42 +1211,42 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1263,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1271,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1279,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1295,7 +1286,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1303,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1311,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1319,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1327,15 +1318,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
